--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -82397,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1465"/>
+  <dimension ref="A1:R1467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81997,7 +81997,7 @@
         <v>20</v>
       </c>
       <c r="O1456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1456" t="n">
         <v>0</v>
@@ -82509,7 +82509,117 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>1865.150024414062</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>1893.650024414062</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1893.650024414062</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>1846867</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>1865.349975585938</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>1879.599975585938</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>1879.599975585938</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>625647</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1468"/>
+  <dimension ref="A1:R1469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82677,7 +82677,63 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>1870</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1908.349975585938</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>1908.349975585938</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>4487661</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -82733,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -82789,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -83069,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83123,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83177,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83231,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83285,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1479"/>
+  <dimension ref="A1:R1480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82781,7 +82781,7 @@
         <v>23</v>
       </c>
       <c r="O1470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1470" t="n">
         <v>0</v>
@@ -83296,6 +83296,60 @@
       <c r="R1479" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>1840.300048828125</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1814</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>1814</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>629681</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1480"/>
+  <dimension ref="A1:R1481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83349,7 +83349,63 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>1821.650024414062</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>1775</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1789.650024414062</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>1789.650024414062</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>970255</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1481"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82893,7 +82893,7 @@
         <v>23</v>
       </c>
       <c r="O1472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1472" t="n">
         <v>0</v>
@@ -83405,7 +83405,387 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>1807.75</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>1816.400024414062</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1785.5</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1806.400024414062</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>1806.400024414062</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>724077</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>1814.300048828125</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1775.25</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>1780.449951171875</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>1780.449951171875</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>753905</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1783.800048828125</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>1812.349975585938</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>1812.349975585938</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>674744</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>1819.699951171875</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1797.099975585938</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>1797.099975585938</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>441041</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>1809.849975585938</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>1765</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>1774.300048828125</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>1774.300048828125</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>433144</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1779.900024414062</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>1817.949951171875</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1755.050048828125</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1808.449951171875</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>1808.449951171875</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>569485</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1809.300048828125</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1777.5</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1788.800048828125</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>1788.800048828125</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>485198</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -83461,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83515,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83569,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83623,7 +83629,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83677,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83731,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83785,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83801,6 +83801,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1772.099975585938</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1776.849975585938</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>1776.849975585938</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>276666</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1780.150024414062</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1818.800048828125</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1769.099975585938</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1774.150024414062</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>1774.150024414062</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>683054</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>1786.400024414062</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1775.050048828125</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>1775.050048828125</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>549827</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1766.800048828125</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>1766.800048828125</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>344262</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1765.199951171875</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>1775</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1751.25</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1754.300048828125</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>1754.300048828125</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>398792</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1493"/>
+  <dimension ref="A1:R1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84069,7 +84077,495 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1759.949951171875</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>1765.449951171875</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1756.449951171875</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>1756.449951171875</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>490893</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1748.300048828125</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1756.300048828125</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>1756.300048828125</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>674011</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1766.699951171875</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>1770.599975585938</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1732.150024414062</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1755.650024414062</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>1755.650024414062</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>438959</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>1763.400024414062</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1747.050048828125</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>1747.050048828125</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>351498</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1752.949951171875</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>1756.75</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>365490</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>1749.800048828125</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1741.099975585938</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>1741.099975585938</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>293609</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1757.949951171875</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1750.5</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1759.949951171875</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>1759.949951171875</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>1231412</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>1780.949951171875</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1747.550048828125</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>1747.550048828125</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>784726</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>1751.900024414062</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1712.599975585938</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1723.300048828125</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>1723.300048828125</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>397070</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1502"/>
+  <dimension ref="A1:R1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84133,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84187,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84241,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84295,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84349,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84403,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84457,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84511,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84565,7 +84581,549 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1723.949951171875</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>1735.650024414062</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1700.199951171875</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1715.25</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>1715.25</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>309254</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1720.300048828125</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>1720.300048828125</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>2181097</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>1748</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1711.300048828125</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1716</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>1716</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>535197</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>1849.949951171875</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1701</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1820.5</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>1820.5</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>3002543</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>1887.800048828125</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>1903.650024414062</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1803.699951171875</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>1803.699951171875</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>2836113</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>1824.849975585938</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1800.099975585938</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1836.25</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>1836.25</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>8946891</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>1876.449951171875</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>1824</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1832.400024414062</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>1832.400024414062</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>8899979</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>1844</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1811.25</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>1847.199951171875</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>1847.199951171875</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>9922499</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1843.349975585938</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>11727943</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>1868.949951171875</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>1914.800048828125</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>1861.150024414062</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>1881.400024414062</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>1881.400024414062</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>1826097</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1512"/>
+  <dimension ref="A1:R1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84637,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84683,7 +84685,7 @@
         <v>30</v>
       </c>
       <c r="O1504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1504" t="n">
         <v>0</v>
@@ -84691,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84745,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84799,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84853,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84907,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84961,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85015,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85069,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85123,7 +85141,279 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>1854.5</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1768.75</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>1768.75</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>1759935</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>1823</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1742.300048828125</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1749.599975585938</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>1749.599975585938</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>1125446</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>1776.75</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>1791.949951171875</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1763</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1772.5</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>1772.5</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>576702</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>1781.400024414062</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>1802.099975585938</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1767.050048828125</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1778.150024414062</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>1778.150024414062</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>539305</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>1780.849975585938</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>1780.849975585938</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>391758</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1517"/>
+  <dimension ref="A1:R1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85077,7 +85077,7 @@
         <v>31</v>
       </c>
       <c r="O1511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1511" t="n">
         <v>0</v>
@@ -85197,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85251,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85305,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>1</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85359,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85413,7 +85421,225 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>1816</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>1798.300048828125</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>1798.300048828125</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>4029054</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1816.199951171875</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>1847.400024414062</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>1809.150024414062</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1825.650024414062</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>1825.650024414062</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>1303132</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>1826.449951171875</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1783.400024414062</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1808.300048828125</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>1808.300048828125</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>815835</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1808.300048828125</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1787</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>1831</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>1831</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>883780</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1521"/>
+  <dimension ref="A1:R1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85477,7 +85477,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85531,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85585,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85639,7 +85645,279 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1811</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>1909.900024414062</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1810.199951171875</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>1898</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>1745998</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>1907.699951171875</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>1880.099975585938</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1924.599975585938</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>1924.599975585938</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>1088866</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>1992.949951171875</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>1920.849975585938</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>1920.849975585938</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>1483458</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1920.849975585938</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>1870.25</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>1886.349975585938</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>1886.349975585938</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>755079</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>1889.900024414062</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>1924.5</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>1887.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>1900.900024414062</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>1900.900024414062</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>774455</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1526"/>
+  <dimension ref="A1:R1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85469,7 +85469,7 @@
         <v>33</v>
       </c>
       <c r="O1518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1518" t="n">
         <v>0</v>
@@ -85701,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85755,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85809,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85863,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85917,7 +85925,279 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1875.400024414062</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>1888.900024414062</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>1888.900024414062</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>351168</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>1888</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>1875.199951171875</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>1886.800048828125</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>1886.800048828125</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>307625</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>1892.550048828125</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>1847.25</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>1861.099975585938</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>1861.099975585938</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>434976</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>1879.199951171875</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>1811.599975585938</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>1829.650024414062</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>1829.650024414062</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>534410</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>1833.75</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>1861.800048828125</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>1824</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>1838.150024414062</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>1838.150024414062</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>1051978</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1531"/>
+  <dimension ref="A1:R1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85805,7 +85805,7 @@
         <v>34</v>
       </c>
       <c r="O1524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1524" t="n">
         <v>0</v>
@@ -85981,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -86035,7 +86037,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -86089,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>1</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86143,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86197,7 +86205,279 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>1839.099975585938</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>1839.099975585938</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>1945.699951171875</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>1945.699951171875</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>2881173</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>1957.5</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>1897.900024414062</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>1897.900024414062</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>923970</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>1877</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>1935.449951171875</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>1872</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>1930.900024414062</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>1930.900024414062</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>794724</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>1931.550048828125</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>1890.300048828125</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>1890.300048828125</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>576528</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>1902.900024414062</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>1929.449951171875</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>1852.300048828125</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>1863.300048828125</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>1863.300048828125</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>777158</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1536"/>
+  <dimension ref="A1:R1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86261,7 +86261,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86315,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86369,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86423,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86477,7 +86485,279 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>1882.650024414062</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>1822.400024414062</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>1865.75</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>717802</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>1838.5</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>1849.699951171875</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>1849.699951171875</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>535037</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>1852.099975585938</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>1809.099975585938</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>1814.449951171875</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>1814.449951171875</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>515632</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>1822.449951171875</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>1834.900024414062</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>1805.300048828125</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>1811.900024414062</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>1811.900024414062</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>456050</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>1780.400024414062</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>1788.199951171875</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>1788.199951171875</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>452156</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1541"/>
+  <dimension ref="A1:R1546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86541,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86595,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86649,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86703,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86757,7 +86765,279 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>1941.650024414062</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>1930.800048828125</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>1930.800048828125</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>5342579</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>1930.800048828125</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>1978</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>1886</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>1954.400024414062</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>1954.400024414062</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>4392980</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>1925.099975585938</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>1950.800048828125</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>1950.800048828125</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>2911792</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>1968.349975585938</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>1905.800048828125</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>1962.949951171875</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>1962.949951171875</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>4625834</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>1962.949951171875</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>2019.949951171875</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>2003.949951171875</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>2003.949951171875</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>5657765</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1546"/>
+  <dimension ref="A1:R1551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86757,7 +86757,7 @@
         <v>37</v>
       </c>
       <c r="O1541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1541" t="n">
         <v>0</v>
@@ -86821,7 +86821,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86875,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86929,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86983,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87037,7 +87045,279 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>2028.949951171875</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>2042.900024414062</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>1963.050048828125</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>2031.199951171875</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>2031.199951171875</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>3976960</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>2037.599975585938</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>2079.64990234375</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>2023.699951171875</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>2070.550048828125</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>2070.550048828125</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>2241165</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>2079</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>2087.75</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>2027.099975585938</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>2066.75</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>2066.75</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>1112406</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>2080</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>2091</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>2039.199951171875</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>2057.85009765625</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>2057.85009765625</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>804165</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>2084.300048828125</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1963.75</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>1981.849975585938</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>1981.849975585938</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>2300477</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1551"/>
+  <dimension ref="A1:R1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87101,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87155,7 +87157,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87209,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87263,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87317,7 +87325,225 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>1988.449951171875</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1891.900024414062</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>1902.699951171875</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>1902.699951171875</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>1369027</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>1915.550048828125</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>1929.550048828125</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>1884.949951171875</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>1884.949951171875</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>798097</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>1868.599975585938</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>1775.75</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>1807.800048828125</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>1807.800048828125</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>1694940</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>1811.900024414062</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>1801.199951171875</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>1801.199951171875</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>882990</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1555"/>
+  <dimension ref="A1:R1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87261,7 +87261,7 @@
         <v>39</v>
       </c>
       <c r="O1550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1550" t="n">
         <v>0</v>
@@ -87381,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87435,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87489,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87543,7 +87549,279 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>1801.150024414062</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>1815.099975585938</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>1752.449951171875</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>1752.449951171875</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>694897</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>1725.550048828125</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>1813.849975585938</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>1813.849975585938</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>752389</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>1827</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>1833.949951171875</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>1779.449951171875</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>1784.449951171875</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>1784.449951171875</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>542956</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>1758.199951171875</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>1780.5</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>1780.5</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>595689</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>1782</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>1807</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1767</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>475369</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1560"/>
+  <dimension ref="A1:R1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87605,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87659,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87713,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87767,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87821,7 +87829,279 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>1765.050048828125</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>1775.349975585938</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>1775.349975585938</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>369972</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>1777</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>1783.900024414062</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>1763</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>335436</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>1774.199951171875</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1740.550048828125</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>1751.050048828125</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>1751.050048828125</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>377378</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1750.050048828125</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>1767.699951171875</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1719</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>1733.550048828125</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>1733.550048828125</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>355958</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>1745.5</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>1703</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>1736.050048828125</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>1736.050048828125</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>410734</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1565"/>
+  <dimension ref="A1:R1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87885,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87939,7 +87941,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87993,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88047,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88101,7 +88109,279 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>1710.800048828125</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>1710.800048828125</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>298218</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>1747.400024414062</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>1668.25</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>1684.449951171875</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>1684.449951171875</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>809408</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>1684.449951171875</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>1627.849975585938</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>1702.099975585938</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>1702.099975585938</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>1504049</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>1710.849975585938</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>1681</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>1692.400024414062</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>1692.400024414062</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>472958</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>1718.900024414062</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>1644</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>707448</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1570"/>
+  <dimension ref="A1:R1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88165,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88219,7 +88221,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88273,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88327,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88381,7 +88389,225 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>1661.699951171875</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>1588.550048828125</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>1613.150024414062</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>1613.150024414062</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>850381</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>1635.099975585938</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>1635.099975585938</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>540217</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>1653.75</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>1596.650024414062</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>1634.199951171875</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>1634.199951171875</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>713381</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>1642.099975585938</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>1664</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>1591.949951171875</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>1598.300048828125</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>1598.300048828125</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>716981</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1574"/>
+  <dimension ref="A1:R1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88445,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88499,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88553,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88607,7 +88613,333 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>1639.550048828125</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>1614.449951171875</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>1632.650024414062</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>1632.650024414062</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>132414</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>1606.300048828125</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>1611.949951171875</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>1611.949951171875</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>388291</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>1655</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1594</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>1644.25</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>1644.25</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>379955</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>1733.949951171875</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>1636.699951171875</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>1721.150024414062</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>1721.150024414062</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>966147</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>1725.849975585938</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>1725.849975585938</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>1642.699951171875</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>1642.699951171875</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>848208</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>1640.050048828125</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>1581.400024414062</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>1598.550048828125</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>1598.550048828125</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>546465</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1580"/>
+  <dimension ref="A1:R1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88669,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88723,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88777,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88831,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88885,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88939,7 +88949,225 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>1590.099975585938</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>1599.550048828125</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>1550.300048828125</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>1557.400024414062</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>430658</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>1573</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>1511</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>1524.150024414062</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>1524.150024414062</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>523181</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>1542.550048828125</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>1459.550048828125</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>1468.449951171875</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>1468.449951171875</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>632049</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>1519.949951171875</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>1473.849975585938</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>1490.300048828125</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>1490.300048828125</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>571469</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1584"/>
+  <dimension ref="A1:R1588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88829,7 +88829,7 @@
         <v>45</v>
       </c>
       <c r="O1578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1578" t="n">
         <v>0</v>
@@ -89005,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89059,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89113,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89167,7 +89173,225 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>1512.449951171875</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>1517.75</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>1456.949951171875</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>1456.949951171875</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>626638</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>1448.050048828125</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>1467</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>1400.099975585938</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>1412.699951171875</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>1412.699951171875</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>972102</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>1145.699951171875</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>1145.699951171875</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>9523600</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>1051.800048828125</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>1051.800048828125</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>22034299</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1588"/>
+  <dimension ref="A1:R1593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89229,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89283,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89337,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89391,7 +89397,279 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>1080.199951171875</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>1141</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>933</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>28623200</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>891.8499755859375</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>898.5499877929688</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>898.5499877929688</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>7526340</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>988.4000244140625</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>870.25</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>988.4000244140625</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>988.4000244140625</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>10995732</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>1087.199951171875</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>1087.199951171875</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>1087.199951171875</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>7840622</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>1138.5</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>1323.900024414062</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>1323.900024414062</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>23754400</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1593"/>
+  <dimension ref="A1:R1598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89453,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89507,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89561,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89615,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89669,7 +89677,279 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>1360.550048828125</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>1447.699951171875</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>1301.900024414062</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>1327.949951171875</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>1327.949951171875</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>19679024</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>1312.800048828125</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>1312.800048828125</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>7685780</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>1330.050048828125</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>1251.900024414062</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>1260.849975585938</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>1260.849975585938</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>5109679</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>1270.599975585938</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>1229.599975585938</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>1229.599975585938</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>4522158</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>1236.050048828125</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>1266.849975585938</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>1205.150024414062</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>1210.650024414062</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>1210.650024414062</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>3815090</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1598"/>
+  <dimension ref="A1:R1608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89557,7 +89557,7 @@
         <v>48</v>
       </c>
       <c r="O1591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1591" t="n">
         <v>0</v>
@@ -89733,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89787,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89841,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89895,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89949,7 +89957,529 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>1210.650024414062</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>1216.949951171875</v>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="n">
+        <v>3505936</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>1224.949951171875</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>1224.949951171875</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>1165.349975585938</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>1176.650024414062</v>
+      </c>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="n">
+        <v>3096278</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>1171</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>1189.449951171875</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>1148.050048828125</v>
+      </c>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="n">
+        <v>2666340</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>1143.849975585938</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>1124.199951171875</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>1217.949951171875</v>
+      </c>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="n">
+        <v>10821668</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>1252.300048828125</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>1179.300048828125</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>1198.400024414062</v>
+      </c>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>6893497</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>1200.949951171875</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>1210.5</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1163.650024414062</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>1168.050048828125</v>
+      </c>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="n">
+        <v>2717545</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>1167.900024414062</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>1178.949951171875</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>1143.25</v>
+      </c>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="n">
+        <v>2303877</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>1145.050048828125</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1102</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>1105.5</v>
+      </c>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="n">
+        <v>2654966</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>1103.550048828125</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1062.550048828125</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>1073.650024414062</v>
+      </c>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="n">
+        <v>2938214</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>1119</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1015.099975585938</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>1034.349975585938</v>
+      </c>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="n">
+        <v>14338438</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1608"/>
+  <dimension ref="A1:R1612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90011,7 +90011,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90063,7 +90065,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90115,7 +90119,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90167,7 +90173,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90219,7 +90227,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90271,7 +90281,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90323,7 +90335,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90375,7 +90389,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90427,7 +90443,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90479,7 +90497,217 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>1049.699951171875</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>1057.949951171875</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>1023.599975585938</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>1034.650024414062</v>
+      </c>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="n">
+        <v>2775914</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>1035.599975585938</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>1059.050048828125</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>1031.050048828125</v>
+      </c>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="n">
+        <v>2494981</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>1030.25</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>1082.199951171875</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>1064.25</v>
+      </c>
+      <c r="F1611" t="inlineStr"/>
+      <c r="G1611" t="n">
+        <v>5614636</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>1076.650024414062</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>1044.25</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F1612" t="inlineStr"/>
+      <c r="G1612" t="n">
+        <v>2871155</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1612"/>
+  <dimension ref="A1:R1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90551,7 +90551,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90603,7 +90605,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90655,7 +90659,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90707,7 +90713,269 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>1113.699951171875</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>1042</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>1075.650024414062</v>
+      </c>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="n">
+        <v>6974681</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>1070.949951171875</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>1070.949951171875</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>1040.699951171875</v>
+      </c>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="n">
+        <v>2589661</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>1040.699951171875</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>1038.949951171875</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>1046.400024414062</v>
+      </c>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="n">
+        <v>1560588</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>1055.900024414062</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>1046.5</v>
+      </c>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="n">
+        <v>1415783</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>1049.650024414062</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>1069.900024414062</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>1038.25</v>
+      </c>
+      <c r="F1617" t="inlineStr"/>
+      <c r="G1617" t="n">
+        <v>2142238</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1617"/>
+  <dimension ref="A1:R1622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90767,7 +90767,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90819,7 +90821,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90871,7 +90875,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90923,7 +90929,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -90975,7 +90983,269 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>980</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>982.5999755859375</v>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="n">
+        <v>3322540</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>986.9500122070312</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>985.0999755859375</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>1005.5</v>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="n">
+        <v>2637204</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>1011.549987792969</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>981</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>988.9500122070312</v>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="n">
+        <v>1702163</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>975.0999755859375</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>977.7000122070312</v>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="n">
+        <v>1237540</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>970.0499877929688</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>977.5</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>940.4000244140625</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>943.0499877929688</v>
+      </c>
+      <c r="F1622" t="inlineStr"/>
+      <c r="G1622" t="n">
+        <v>2095389</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1622"/>
+  <dimension ref="A1:R1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91037,7 +91037,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91089,7 +91091,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91141,7 +91145,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91193,7 +91199,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91245,7 +91253,269 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>937.7999877929688</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>937.7999877929688</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>885</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>889.75</v>
+      </c>
+      <c r="F1623" t="inlineStr"/>
+      <c r="G1623" t="n">
+        <v>2618478</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>898.0499877929688</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>1018.400024414062</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>897.5</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>1006.849975585938</v>
+      </c>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="n">
+        <v>17198310</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>1023.5</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>1035.050048828125</v>
+      </c>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="n">
+        <v>13279463</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>1107.050048828125</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>1127</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>1063.400024414062</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>1070.25</v>
+      </c>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="n">
+        <v>7083726</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1078.900024414062</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1089.5</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>1056.150024414062</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>1078.199951171875</v>
+      </c>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="n">
+        <v>3484885</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1627"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91307,7 +91307,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91359,7 +91361,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91411,7 +91415,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91463,7 +91469,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91515,7 +91523,269 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1054.25</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1066.75</v>
+      </c>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="n">
+        <v>2463260</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1037.75</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>1045.699951171875</v>
+      </c>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="n">
+        <v>1985986</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1042.800048828125</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>1031.699951171875</v>
+      </c>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="n">
+        <v>2656247</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>1049.400024414062</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>1030.25</v>
+      </c>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="n">
+        <v>3052259</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>1037.25</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>1012.099975585938</v>
+      </c>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="n">
+        <v>4978483</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1632"/>
+  <dimension ref="A1:R1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91299,7 +91299,7 @@
         <v>3</v>
       </c>
       <c r="O1623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1623" t="n">
         <v>0</v>
@@ -91577,7 +91577,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91629,7 +91631,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91681,7 +91685,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91733,7 +91739,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91785,7 +91793,61 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>982.9500122070312</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>998.9500122070312</v>
+      </c>
+      <c r="F1633" t="inlineStr"/>
+      <c r="G1633" t="n">
+        <v>2286496</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1633"/>
+  <dimension ref="A1:R1642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91461,7 +91461,7 @@
         <v>3</v>
       </c>
       <c r="O1626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1626" t="n">
         <v>0</v>
@@ -91847,7 +91847,477 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>1012.75</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>965.7000122070312</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>987.2999877929688</v>
+      </c>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="n">
+        <v>2102556</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>989</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1006.349975585938</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>982.4000244140625</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>987.6500244140625</v>
+      </c>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="n">
+        <v>1865241</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>986</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>1001.900024414062</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>965.7000122070312</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>971.8499755859375</v>
+      </c>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="n">
+        <v>1871049</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>973.9000244140625</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>1006.799987792969</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>971.5499877929688</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>997.5499877929688</v>
+      </c>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="n">
+        <v>3123886</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>994.9000244140625</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>994.9000244140625</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>967.5</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>970.0999755859375</v>
+      </c>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="n">
+        <v>1672435</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>973.2000122070312</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>973.2000122070312</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="F1639" t="inlineStr"/>
+      <c r="G1639" t="n">
+        <v>1333100</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>987.0499877929688</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>1028.699951171875</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>987.0499877929688</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>1017.799987792969</v>
+      </c>
+      <c r="F1640" t="inlineStr"/>
+      <c r="G1640" t="n">
+        <v>2434579</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>1025.900024414062</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>1025.900024414062</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>997.5999755859375</v>
+      </c>
+      <c r="F1641" t="inlineStr"/>
+      <c r="G1641" t="n">
+        <v>1097383</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>999.9000244140625</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>1009.549987792969</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>984.0999755859375</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>989.5</v>
+      </c>
+      <c r="F1642" t="inlineStr"/>
+      <c r="G1642" t="n">
+        <v>1238161</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1642"/>
+  <dimension ref="A1:R1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91901,7 +91901,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -91953,7 +91955,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92005,7 +92009,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92057,7 +92063,9 @@
       <c r="Q1637" t="n">
         <v>2</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92109,7 +92117,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92161,7 +92171,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92213,7 +92225,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92265,7 +92279,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92317,7 +92333,269 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>996</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>998.9500122070312</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>950.0499877929688</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>954.0499877929688</v>
+      </c>
+      <c r="F1643" t="inlineStr"/>
+      <c r="G1643" t="n">
+        <v>1527205</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>965</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>985.9000244140625</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>938.0499877929688</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>946.2000122070312</v>
+      </c>
+      <c r="F1644" t="inlineStr"/>
+      <c r="G1644" t="n">
+        <v>3770394</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>950.0499877929688</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>956.9500122070312</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>897.0499877929688</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>916.9000244140625</v>
+      </c>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="n">
+        <v>4095054</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>927.0499877929688</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>945.9500122070312</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>908.0499877929688</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>913.75</v>
+      </c>
+      <c r="F1646" t="inlineStr"/>
+      <c r="G1646" t="n">
+        <v>2474769</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>920</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>923.6500244140625</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>873</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>884.4000244140625</v>
+      </c>
+      <c r="F1647" t="inlineStr"/>
+      <c r="G1647" t="n">
+        <v>2863380</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1647"/>
+  <dimension ref="A1:R1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92387,7 +92387,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92439,7 +92441,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92491,7 +92495,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92543,7 +92549,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92595,7 +92603,269 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>878.9500122070312</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>900.8499755859375</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>840.4500122070312</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>890.3499755859375</v>
+      </c>
+      <c r="F1648" t="inlineStr"/>
+      <c r="G1648" t="n">
+        <v>4343277</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>899</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>904.9000244140625</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>870.0999755859375</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>897.5499877929688</v>
+      </c>
+      <c r="F1649" t="inlineStr"/>
+      <c r="G1649" t="n">
+        <v>2718141</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>875.25</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>885.8499755859375</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>860.9500122070312</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>864.7000122070312</v>
+      </c>
+      <c r="F1650" t="inlineStr"/>
+      <c r="G1650" t="n">
+        <v>4121742</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>861</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>883.9500122070312</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>845</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>864.9500122070312</v>
+      </c>
+      <c r="F1651" t="inlineStr"/>
+      <c r="G1651" t="n">
+        <v>3499937</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>864.9500122070312</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>877</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>841</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>849.3499755859375</v>
+      </c>
+      <c r="F1652" t="inlineStr"/>
+      <c r="G1652" t="n">
+        <v>2894605</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1652"/>
+  <dimension ref="A1:R1662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92069,23 +92069,23 @@
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1638" t="n">
-        <v>994.9000244140625</v>
+        <v>1010</v>
       </c>
       <c r="C1638" t="n">
-        <v>994.9000244140625</v>
+        <v>1049.900024414062</v>
       </c>
       <c r="D1638" t="n">
-        <v>967.5</v>
+        <v>986</v>
       </c>
       <c r="E1638" t="n">
-        <v>970.0999755859375</v>
+        <v>996.5</v>
       </c>
       <c r="F1638" t="inlineStr"/>
       <c r="G1638" t="n">
-        <v>1672435</v>
+        <v>4230202</v>
       </c>
       <c r="H1638" t="n">
         <v>2025</v>
@@ -92094,7 +92094,7 @@
         <v>2</v>
       </c>
       <c r="J1638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1638" t="n">
         <v>0</v>
@@ -92106,7 +92106,7 @@
         <v>0</v>
       </c>
       <c r="N1638" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1638" t="n">
         <v>0</v>
@@ -92117,29 +92117,27 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1638" t="inlineStr"/>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1639" t="n">
-        <v>973.2000122070312</v>
+        <v>994.9000244140625</v>
       </c>
       <c r="C1639" t="n">
-        <v>990</v>
+        <v>994.9000244140625</v>
       </c>
       <c r="D1639" t="n">
-        <v>973.2000122070312</v>
+        <v>967.5</v>
       </c>
       <c r="E1639" t="n">
-        <v>983.1500244140625</v>
+        <v>970.0999755859375</v>
       </c>
       <c r="F1639" t="inlineStr"/>
       <c r="G1639" t="n">
-        <v>1333100</v>
+        <v>1672435</v>
       </c>
       <c r="H1639" t="n">
         <v>2025</v>
@@ -92148,7 +92146,7 @@
         <v>2</v>
       </c>
       <c r="J1639" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1639" t="n">
         <v>0</v>
@@ -92177,23 +92175,23 @@
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1640" t="n">
-        <v>987.0499877929688</v>
+        <v>973.2000122070312</v>
       </c>
       <c r="C1640" t="n">
-        <v>1028.699951171875</v>
+        <v>990</v>
       </c>
       <c r="D1640" t="n">
-        <v>987.0499877929688</v>
+        <v>973.2000122070312</v>
       </c>
       <c r="E1640" t="n">
-        <v>1017.799987792969</v>
+        <v>983.1500244140625</v>
       </c>
       <c r="F1640" t="inlineStr"/>
       <c r="G1640" t="n">
-        <v>2434579</v>
+        <v>1333100</v>
       </c>
       <c r="H1640" t="n">
         <v>2025</v>
@@ -92202,7 +92200,7 @@
         <v>2</v>
       </c>
       <c r="J1640" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1640" t="n">
         <v>0</v>
@@ -92231,23 +92229,23 @@
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1641" t="n">
-        <v>1025.900024414062</v>
+        <v>987.0499877929688</v>
       </c>
       <c r="C1641" t="n">
-        <v>1025.900024414062</v>
+        <v>1028.699951171875</v>
       </c>
       <c r="D1641" t="n">
-        <v>993.5</v>
+        <v>987.0499877929688</v>
       </c>
       <c r="E1641" t="n">
-        <v>997.5999755859375</v>
+        <v>1017.799987792969</v>
       </c>
       <c r="F1641" t="inlineStr"/>
       <c r="G1641" t="n">
-        <v>1097383</v>
+        <v>2434579</v>
       </c>
       <c r="H1641" t="n">
         <v>2025</v>
@@ -92256,7 +92254,7 @@
         <v>2</v>
       </c>
       <c r="J1641" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1641" t="n">
         <v>0</v>
@@ -92285,23 +92283,23 @@
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1642" t="n">
-        <v>999.9000244140625</v>
+        <v>1025.900024414062</v>
       </c>
       <c r="C1642" t="n">
-        <v>1009.549987792969</v>
+        <v>1025.900024414062</v>
       </c>
       <c r="D1642" t="n">
-        <v>984.0999755859375</v>
+        <v>993.5</v>
       </c>
       <c r="E1642" t="n">
-        <v>989.5</v>
+        <v>997.5999755859375</v>
       </c>
       <c r="F1642" t="inlineStr"/>
       <c r="G1642" t="n">
-        <v>1238161</v>
+        <v>1097383</v>
       </c>
       <c r="H1642" t="n">
         <v>2025</v>
@@ -92310,7 +92308,7 @@
         <v>2</v>
       </c>
       <c r="J1642" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1642" t="n">
         <v>0</v>
@@ -92339,23 +92337,23 @@
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1643" t="n">
-        <v>996</v>
+        <v>999.9000244140625</v>
       </c>
       <c r="C1643" t="n">
-        <v>998.9500122070312</v>
+        <v>1009.549987792969</v>
       </c>
       <c r="D1643" t="n">
-        <v>950.0499877929688</v>
+        <v>984.0999755859375</v>
       </c>
       <c r="E1643" t="n">
-        <v>954.0499877929688</v>
+        <v>989.5</v>
       </c>
       <c r="F1643" t="inlineStr"/>
       <c r="G1643" t="n">
-        <v>1527205</v>
+        <v>1238161</v>
       </c>
       <c r="H1643" t="n">
         <v>2025</v>
@@ -92364,7 +92362,7 @@
         <v>2</v>
       </c>
       <c r="J1643" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1643" t="n">
         <v>0</v>
@@ -92376,7 +92374,7 @@
         <v>0</v>
       </c>
       <c r="N1643" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1643" t="n">
         <v>0</v>
@@ -92393,23 +92391,23 @@
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1644" t="n">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="C1644" t="n">
-        <v>985.9000244140625</v>
+        <v>998.9500122070312</v>
       </c>
       <c r="D1644" t="n">
-        <v>938.0499877929688</v>
+        <v>950.0499877929688</v>
       </c>
       <c r="E1644" t="n">
-        <v>946.2000122070312</v>
+        <v>954.0499877929688</v>
       </c>
       <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="n">
-        <v>3770394</v>
+        <v>1527205</v>
       </c>
       <c r="H1644" t="n">
         <v>2025</v>
@@ -92418,7 +92416,7 @@
         <v>2</v>
       </c>
       <c r="J1644" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1644" t="n">
         <v>0</v>
@@ -92447,23 +92445,23 @@
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1645" t="n">
-        <v>950.0499877929688</v>
+        <v>965</v>
       </c>
       <c r="C1645" t="n">
-        <v>956.9500122070312</v>
+        <v>985.9000244140625</v>
       </c>
       <c r="D1645" t="n">
-        <v>897.0499877929688</v>
+        <v>938.0499877929688</v>
       </c>
       <c r="E1645" t="n">
-        <v>916.9000244140625</v>
+        <v>946.2000122070312</v>
       </c>
       <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="n">
-        <v>4095054</v>
+        <v>3770394</v>
       </c>
       <c r="H1645" t="n">
         <v>2025</v>
@@ -92472,7 +92470,7 @@
         <v>2</v>
       </c>
       <c r="J1645" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1645" t="n">
         <v>0</v>
@@ -92501,23 +92499,23 @@
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1646" t="n">
-        <v>927.0499877929688</v>
+        <v>950.0499877929688</v>
       </c>
       <c r="C1646" t="n">
-        <v>945.9500122070312</v>
+        <v>956.9500122070312</v>
       </c>
       <c r="D1646" t="n">
-        <v>908.0499877929688</v>
+        <v>897.0499877929688</v>
       </c>
       <c r="E1646" t="n">
-        <v>913.75</v>
+        <v>916.9000244140625</v>
       </c>
       <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="n">
-        <v>2474769</v>
+        <v>4095054</v>
       </c>
       <c r="H1646" t="n">
         <v>2025</v>
@@ -92526,7 +92524,7 @@
         <v>2</v>
       </c>
       <c r="J1646" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1646" t="n">
         <v>0</v>
@@ -92555,23 +92553,23 @@
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1647" t="n">
-        <v>920</v>
+        <v>927.0499877929688</v>
       </c>
       <c r="C1647" t="n">
-        <v>923.6500244140625</v>
+        <v>945.9500122070312</v>
       </c>
       <c r="D1647" t="n">
-        <v>873</v>
+        <v>908.0499877929688</v>
       </c>
       <c r="E1647" t="n">
-        <v>884.4000244140625</v>
+        <v>913.75</v>
       </c>
       <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="n">
-        <v>2863380</v>
+        <v>2474769</v>
       </c>
       <c r="H1647" t="n">
         <v>2025</v>
@@ -92580,7 +92578,7 @@
         <v>2</v>
       </c>
       <c r="J1647" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1647" t="n">
         <v>0</v>
@@ -92609,23 +92607,23 @@
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1648" t="n">
-        <v>878.9500122070312</v>
+        <v>920</v>
       </c>
       <c r="C1648" t="n">
-        <v>900.8499755859375</v>
+        <v>923.6500244140625</v>
       </c>
       <c r="D1648" t="n">
-        <v>840.4500122070312</v>
+        <v>873</v>
       </c>
       <c r="E1648" t="n">
-        <v>890.3499755859375</v>
+        <v>884.4000244140625</v>
       </c>
       <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="n">
-        <v>4343277</v>
+        <v>2863380</v>
       </c>
       <c r="H1648" t="n">
         <v>2025</v>
@@ -92634,7 +92632,7 @@
         <v>2</v>
       </c>
       <c r="J1648" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1648" t="n">
         <v>0</v>
@@ -92646,7 +92644,7 @@
         <v>0</v>
       </c>
       <c r="N1648" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1648" t="n">
         <v>0</v>
@@ -92657,27 +92655,29 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1649" t="n">
-        <v>899</v>
+        <v>878.9500122070312</v>
       </c>
       <c r="C1649" t="n">
-        <v>904.9000244140625</v>
+        <v>900.8499755859375</v>
       </c>
       <c r="D1649" t="n">
-        <v>870.0999755859375</v>
+        <v>840.4500122070312</v>
       </c>
       <c r="E1649" t="n">
-        <v>897.5499877929688</v>
+        <v>890.3499755859375</v>
       </c>
       <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="n">
-        <v>2718141</v>
+        <v>4343277</v>
       </c>
       <c r="H1649" t="n">
         <v>2025</v>
@@ -92686,7 +92686,7 @@
         <v>2</v>
       </c>
       <c r="J1649" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1649" t="n">
         <v>0</v>
@@ -92709,27 +92709,29 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1650" t="n">
-        <v>875.25</v>
+        <v>899</v>
       </c>
       <c r="C1650" t="n">
-        <v>885.8499755859375</v>
+        <v>904.9000244140625</v>
       </c>
       <c r="D1650" t="n">
-        <v>860.9500122070312</v>
+        <v>870.0999755859375</v>
       </c>
       <c r="E1650" t="n">
-        <v>864.7000122070312</v>
+        <v>897.5499877929688</v>
       </c>
       <c r="F1650" t="inlineStr"/>
       <c r="G1650" t="n">
-        <v>4121742</v>
+        <v>2718141</v>
       </c>
       <c r="H1650" t="n">
         <v>2025</v>
@@ -92738,7 +92740,7 @@
         <v>2</v>
       </c>
       <c r="J1650" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1650" t="n">
         <v>0</v>
@@ -92761,27 +92763,29 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1651" t="n">
-        <v>861</v>
+        <v>875.25</v>
       </c>
       <c r="C1651" t="n">
-        <v>883.9500122070312</v>
+        <v>885.8499755859375</v>
       </c>
       <c r="D1651" t="n">
-        <v>845</v>
+        <v>860.9500122070312</v>
       </c>
       <c r="E1651" t="n">
-        <v>864.9500122070312</v>
+        <v>864.7000122070312</v>
       </c>
       <c r="F1651" t="inlineStr"/>
       <c r="G1651" t="n">
-        <v>3499937</v>
+        <v>4121742</v>
       </c>
       <c r="H1651" t="n">
         <v>2025</v>
@@ -92790,7 +92794,7 @@
         <v>2</v>
       </c>
       <c r="J1651" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1651" t="n">
         <v>0</v>
@@ -92813,27 +92817,29 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1652" t="n">
+        <v>861</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>883.9500122070312</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>845</v>
+      </c>
+      <c r="E1652" t="n">
         <v>864.9500122070312</v>
-      </c>
-      <c r="C1652" t="n">
-        <v>877</v>
-      </c>
-      <c r="D1652" t="n">
-        <v>841</v>
-      </c>
-      <c r="E1652" t="n">
-        <v>849.3499755859375</v>
       </c>
       <c r="F1652" t="inlineStr"/>
       <c r="G1652" t="n">
-        <v>2894605</v>
+        <v>3499937</v>
       </c>
       <c r="H1652" t="n">
         <v>2025</v>
@@ -92842,7 +92848,7 @@
         <v>2</v>
       </c>
       <c r="J1652" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1652" t="n">
         <v>0</v>
@@ -92865,7 +92871,531 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>864.9500122070312</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>877</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>841</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>849.3499755859375</v>
+      </c>
+      <c r="F1653" t="inlineStr"/>
+      <c r="G1653" t="n">
+        <v>2894605</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>840</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>842.7000122070312</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>819.0999755859375</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>836.0499877929688</v>
+      </c>
+      <c r="F1654" t="inlineStr"/>
+      <c r="G1654" t="n">
+        <v>3682290</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>836.5</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>867</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>828.6500244140625</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>840.6500244140625</v>
+      </c>
+      <c r="F1655" t="inlineStr"/>
+      <c r="G1655" t="n">
+        <v>5299509</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>848.6500244140625</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>859.4500122070312</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>806.2999877929688</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>811.75</v>
+      </c>
+      <c r="F1656" t="inlineStr"/>
+      <c r="G1656" t="n">
+        <v>5612214</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>795.0999755859375</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>815</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>760.1500244140625</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>774.4000244140625</v>
+      </c>
+      <c r="F1657" t="inlineStr"/>
+      <c r="G1657" t="n">
+        <v>43947584</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>775</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>808.7999877929688</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>758</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>804.0999755859375</v>
+      </c>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="n">
+        <v>5720645</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>783.2000122070312</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>796.6500244140625</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>765.5999755859375</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1659" t="inlineStr"/>
+      <c r="G1659" t="n">
+        <v>7726332</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>769</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>857.9000244140625</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>769</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>848.7000122070312</v>
+      </c>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="n">
+        <v>17902240</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>868.7999877929688</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>872.4500122070312</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>836</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>845.9500122070312</v>
+      </c>
+      <c r="F1661" t="inlineStr"/>
+      <c r="G1661" t="n">
+        <v>10166566</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>840</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>847.2999877929688</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>823.1500244140625</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>837.2000122070312</v>
+      </c>
+      <c r="F1662" t="inlineStr"/>
+      <c r="G1662" t="n">
+        <v>6077847</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1662"/>
+  <dimension ref="A1:R1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92117,7 +92117,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92979,7 +92981,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93031,7 +93035,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93083,7 +93089,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93135,7 +93143,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93179,7 +93189,7 @@
         <v>10</v>
       </c>
       <c r="O1658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1658" t="n">
         <v>0</v>
@@ -93187,7 +93197,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93239,7 +93251,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93291,7 +93305,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93343,7 +93359,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93395,7 +93413,477 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>840.9000244140625</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>871</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>823.25</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>826.0499877929688</v>
+      </c>
+      <c r="F1663" t="inlineStr"/>
+      <c r="G1663" t="n">
+        <v>6595111</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>819.25</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>834.3499755859375</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>810.5999755859375</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>824.2000122070312</v>
+      </c>
+      <c r="F1664" t="inlineStr"/>
+      <c r="G1664" t="n">
+        <v>3495317</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>834.4000244140625</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>858</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>806.3499755859375</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>853.4500122070312</v>
+      </c>
+      <c r="F1665" t="inlineStr"/>
+      <c r="G1665" t="n">
+        <v>4826264</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>874</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>896.8499755859375</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>858</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>873.6500244140625</v>
+      </c>
+      <c r="F1666" t="inlineStr"/>
+      <c r="G1666" t="n">
+        <v>11779180</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>873.6500244140625</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>908.4500122070312</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>868.8499755859375</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="F1667" t="inlineStr"/>
+      <c r="G1667" t="n">
+        <v>5903492</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>896.4500122070312</v>
+      </c>
+      <c r="F1668" t="inlineStr"/>
+      <c r="G1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>904.0499877929688</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>918.75</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>901.4000244140625</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>911.2000122070312</v>
+      </c>
+      <c r="F1669" t="inlineStr"/>
+      <c r="G1669" t="n">
+        <v>2980425</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>920.2999877929688</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>927.9500122070312</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>902.0499877929688</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>923.4000244140625</v>
+      </c>
+      <c r="F1670" t="inlineStr"/>
+      <c r="G1670" t="n">
+        <v>3210117</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>925</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>983.3499755859375</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>920.5499877929688</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>954.25</v>
+      </c>
+      <c r="F1671" t="inlineStr"/>
+      <c r="G1671" t="n">
+        <v>8146605</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1671"/>
+  <dimension ref="A1:R1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93467,7 +93467,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93519,7 +93521,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93571,7 +93575,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93623,7 +93629,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93675,7 +93683,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93727,7 +93737,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93779,7 +93791,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93831,7 +93845,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -93883,7 +93899,477 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>972</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>981</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>949.0499877929688</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>952.9000244140625</v>
+      </c>
+      <c r="F1672" t="inlineStr"/>
+      <c r="G1672" t="n">
+        <v>3632791</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>959</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>966</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>916</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>923.4000244140625</v>
+      </c>
+      <c r="F1673" t="inlineStr"/>
+      <c r="G1673" t="n">
+        <v>3504686</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>921.9500122070312</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>910</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>912.0999755859375</v>
+      </c>
+      <c r="F1674" t="inlineStr"/>
+      <c r="G1674" t="n">
+        <v>3194761</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>966.5999755859375</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>905.2000122070312</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>959.9000244140625</v>
+      </c>
+      <c r="F1675" t="inlineStr"/>
+      <c r="G1675" t="n">
+        <v>5918219</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>967.8499755859375</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>976.4500122070312</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>942.0499877929688</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>948.6500244140625</v>
+      </c>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="n">
+        <v>4083088</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>948</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>962</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>916.6500244140625</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>919.1500244140625</v>
+      </c>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="n">
+        <v>3393666</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>926.9000244140625</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>945.0999755859375</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>910.7000122070312</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>943.0499877929688</v>
+      </c>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="n">
+        <v>2965379</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>927</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>966.5</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>927</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="n">
+        <v>3305378</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>949.9500122070312</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>956</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>917.6500244140625</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>923.7999877929688</v>
+      </c>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="n">
+        <v>3225443</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1680"/>
+  <dimension ref="A1:R1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93891,7 +93891,7 @@
         <v>12</v>
       </c>
       <c r="O1671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1671" t="n">
         <v>0</v>
@@ -93953,7 +93953,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94005,7 +94007,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94057,7 +94061,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94109,7 +94115,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94161,7 +94169,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94213,7 +94223,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94265,7 +94277,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94317,7 +94331,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94369,7 +94385,217 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>850</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>891.9500122070312</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>873.2999877929688</v>
+      </c>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="n">
+        <v>3317613</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>899</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>908.0999755859375</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>873.2999877929688</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>875.7999877929688</v>
+      </c>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="n">
+        <v>3363547</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>874</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>878.9500122070312</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>850.5</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>860.75</v>
+      </c>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="n">
+        <v>2518172</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>890</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>903.4000244140625</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>878.7000122070312</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>893.6500244140625</v>
+      </c>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="n">
+        <v>2380631</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1684"/>
+  <dimension ref="A1:R1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94439,7 +94439,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94491,7 +94493,9 @@
       <c r="Q1682" t="n">
         <v>2</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94543,7 +94547,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94595,7 +94601,165 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>942</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>901.2999877929688</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>936.6500244140625</v>
+      </c>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="n">
+        <v>2944940</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>936.9500122070312</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>955.9500122070312</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="n">
+        <v>2203548</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>945.5999755859375</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>972</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>947.1500244140625</v>
+      </c>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="n">
+        <v>2905274</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1687"/>
+  <dimension ref="A1:R1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94431,7 +94431,7 @@
         <v>15</v>
       </c>
       <c r="O1681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1681" t="n">
         <v>0</v>
@@ -94655,7 +94655,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94707,7 +94709,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94759,7 +94763,477 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>954.7000122070312</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>966.5999755859375</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>944</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>956.25</v>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="n">
+        <v>2149379</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>962</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>941.5499877929688</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>943.2999877929688</v>
+      </c>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="n">
+        <v>2283380</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>950</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>956.9000244140625</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>926</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>952.5</v>
+      </c>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="n">
+        <v>2614789</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>956.9000244140625</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>974</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>948.75</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>968.9500122070312</v>
+      </c>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="n">
+        <v>3604578</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>974</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>975.8499755859375</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>903.7000122070312</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>912.5499877929688</v>
+      </c>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="n">
+        <v>6824718</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>915.3499755859375</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>944.9500122070312</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>941</v>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="n">
+        <v>3691409</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>960</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>961.9000244140625</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>918.9000244140625</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>922.4000244140625</v>
+      </c>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="n">
+        <v>6040053</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>922.7999877929688</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>929</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>895</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>900.7000122070312</v>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="n">
+        <v>3000004</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>902.0499877929688</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>931.9500122070312</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>905.25</v>
+      </c>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="n">
+        <v>3422020</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ADANIGREEN.NS.xlsx
+++ b/stock_historical_data/1d/ADANIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1696"/>
+  <dimension ref="A1:R1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94817,7 +94817,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -94869,7 +94871,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -94921,7 +94925,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -94973,7 +94979,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95025,7 +95033,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95077,7 +95087,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95129,7 +95141,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95181,7 +95195,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95233,7 +95249,529 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>912.7000122070312</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>910.5499877929688</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>965.7000122070312</v>
+      </c>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="n">
+        <v>13652180</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>966</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>971.25</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>918</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>923.25</v>
+      </c>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="n">
+        <v>4153763</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>901.2000122070312</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>929</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>901.0999755859375</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>917.25</v>
+      </c>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="n">
+        <v>3179762</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>926.0499877929688</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>933.2000122070312</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>870.2000122070312</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="n">
+        <v>4281975</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>859.4000244140625</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>887.8499755859375</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>854.3499755859375</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>879.4500122070312</v>
+      </c>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="n">
+        <v>3051122</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>914.9000244140625</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>945</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>911.0499877929688</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>940.5499877929688</v>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="n">
+        <v>6222615</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>940.5499877929688</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>973.7000122070312</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>933.2000122070312</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>958.0499877929688</v>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="n">
+        <v>4260617</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>966</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>975</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>957.7999877929688</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>967.25</v>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="n">
+        <v>3634440</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>972.0999755859375</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>972.7999877929688</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>953.4000244140625</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>967.9000244140625</v>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="n">
+        <v>4951675</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>971.4500122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>965.2000122070312</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="n">
+        <v>7641588</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
